--- a/src/_static/xlsx/tab_elenco_dei_web_services_disponibili.xlsx
+++ b/src/_static/xlsx/tab_elenco_dei_web_services_disponibili.xlsx
@@ -8,10 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="Elencoservizi" sheetId="1" r:id="rId1"/>
-    <sheet name="Foglio1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Elencoservizi!$C$1:$I$61</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0">Elencoservizi!$C$1:$G$61</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Elencoservizi!$D:$G</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -19,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="156">
   <si>
     <t>Note</t>
   </si>
@@ -327,12 +326,6 @@
     <t>N030 (*)</t>
   </si>
   <si>
-    <t>Data consegna richieste</t>
-  </si>
-  <si>
-    <t>Data consegna risposte</t>
-  </si>
-  <si>
     <t>Si effettua con l'attuale struttura dati (AnagAire) tramite sito WEB di ANPR</t>
   </si>
   <si>
@@ -343,105 +336,6 @@
   </si>
   <si>
     <t>Consente di effettuare il download delle tabelle di decodifica</t>
-  </si>
-  <si>
-    <t>Nascita(1001-IscrizioneNascita)</t>
-  </si>
-  <si>
-    <t>Altri tipi di Iscrizione (1002-IscrizioneAltriMotivi)</t>
-  </si>
-  <si>
-    <t>Annullamento richiesta di Iscrizione (1013-AnnullamentoIscrizione)</t>
-  </si>
-  <si>
-    <t>Cancellazione per Morte accertata o presunta  giudizialmente dichiarata (2001-CancellazioneMorte)</t>
-  </si>
-  <si>
-    <t>Altri Motivi di cancellazione (2003-CancellazioneAltriMotivi)</t>
-  </si>
-  <si>
-    <t>Annullamento procedura di Cancellazione (2011-AnnullamentoCancellazione)</t>
-  </si>
-  <si>
-    <t>Mutazione Famiglia/Convivenza (5001-MutazioneFamiglia-Convivenza)</t>
-  </si>
-  <si>
-    <t>Mutazione residenza(5005-MutazioneResidenza)</t>
-  </si>
-  <si>
-    <t>Trasferimento dei cittadini durante la fase di subentro</t>
-  </si>
-  <si>
-    <t>Mutazione dati Scheda Soggetto e Stato Civile (5008-MutazioneDatiGeneraliStatoCivile)</t>
-  </si>
-  <si>
-    <t>Annullamento procedura di mutazione (5012-AnnullamentoMutazione)</t>
-  </si>
-  <si>
-    <t>Nascita (1A01-IscrizioneAireNascita)</t>
-  </si>
-  <si>
-    <t>Altri tipi di Iscrizione (1A02-IscrizioneAIREAltriMotivi)</t>
-  </si>
-  <si>
-    <t>Annullamento richiesta di Iscrizione(1013-AnnullamentoIscrizione)</t>
-  </si>
-  <si>
-    <t>Mutazione AIRE (5A06-MutazioniAIRE)</t>
-  </si>
-  <si>
-    <t>Annullamento procedura di mutazione(5012-AnnullamentoMutazione)</t>
-  </si>
-  <si>
-    <t>Procedimento amministrativo</t>
-  </si>
-  <si>
-    <t>Richiesta ed emissione dei certificati anagrafici ANPR (6001-RichiestaCertificati)</t>
-  </si>
-  <si>
-    <t>Ricerca per paternita’ e/o maternita’ (3001-RicercaPaternitàMaternità)</t>
-  </si>
-  <si>
-    <t>Ricerca scheda famiglia (3002-InterrogazioneCittadinoFamigliaConvivenza)</t>
-  </si>
-  <si>
-    <t>Ricerca scheda convivenza  (3002-InterrogazioneCittadinoFamigliaConvivenza)</t>
-  </si>
-  <si>
-    <t>Ricerca scheda individuale  (3002-InterrogazioneCittadinoFamigliaConvivenza)</t>
-  </si>
-  <si>
-    <t>Gestione richieste (3003-GestioneOperazioni)</t>
-  </si>
-  <si>
-    <t>Consultazione notifiche  (3003-ConsultazioneNotifiche)</t>
-  </si>
-  <si>
-    <t>Visualizzazione elaborati  (3005-VisualizzazioneElaborati)</t>
-  </si>
-  <si>
-    <t>Elenchi dati anagrafici dei cittadini  (4001-EstrazioneDatiAnagraficiCittadini)</t>
-  </si>
-  <si>
-    <t>Rivestimento lista di codici fiscali  (4002-RivestimentoListeCodiciFiscali)</t>
-  </si>
-  <si>
-    <t>Prospetti statistici   (4003-SupportoRilevazioniStatistiche)</t>
-  </si>
-  <si>
-    <t>Struttura del corpo dei messaggi per i servizi di notifica</t>
-  </si>
-  <si>
-    <t>Mutazione di residenza (Notifica N010)</t>
-  </si>
-  <si>
-    <t>Attribuzione di un nuovo codice fiscale (Notifica N020)</t>
-  </si>
-  <si>
-    <t>Operazioni per il Subentro APR (S001-Subentro APR) e AIRE</t>
-  </si>
-  <si>
-    <t>Struttura del corpo dei messaggi per la richiesta delle tabelle di decodifica (7001 Download delle tabelle di decodifica)</t>
   </si>
   <si>
     <t>immigrazione dall'estero</t>
@@ -692,7 +586,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -703,16 +597,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1034,33 +922,31 @@
   </sheetPr>
   <dimension ref="A1:I61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="E58" sqref="E58"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="D60" sqref="D60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="5" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" style="5" customWidth="1"/>
-    <col min="5" max="5" width="50.85546875" style="5" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="33" style="9" customWidth="1"/>
-    <col min="8" max="8" width="18.42578125" style="5" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" style="5" hidden="1" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="5"/>
+    <col min="1" max="1" width="13.28515625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" style="4" customWidth="1"/>
+    <col min="5" max="5" width="50.85546875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="33" style="7" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>174</v>
+        <v>139</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>175</v>
+        <v>140</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>83</v>
@@ -1074,81 +960,63 @@
       <c r="G1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1000</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2" s="5">
         <v>1001</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="E2" s="8" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7">
-        <v>42111</v>
-      </c>
-      <c r="I2" s="7">
-        <v>42116</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1000</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <v>1002</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="8" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7">
-        <v>42111</v>
-      </c>
-      <c r="I3" s="7">
-        <v>42116</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1000</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <v>1002</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="8" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -1157,27 +1025,21 @@
       <c r="G4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H4" s="7">
-        <v>42111</v>
-      </c>
-      <c r="I4" s="7">
-        <v>42116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1000</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <v>1002</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="8" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -1186,27 +1048,21 @@
       <c r="G5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H5" s="7">
-        <v>42111</v>
-      </c>
-      <c r="I5" s="7">
-        <v>42116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1000</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="5">
         <v>1002</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -1215,28 +1071,22 @@
       <c r="G6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H6" s="7">
-        <v>42111</v>
-      </c>
-      <c r="I6" s="7">
-        <v>42116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1000</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="5">
         <v>1002</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>142</v>
+      <c r="D7" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>85</v>
@@ -1244,27 +1094,21 @@
       <c r="G7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H7" s="7">
-        <v>42111</v>
-      </c>
-      <c r="I7" s="7">
-        <v>42116</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1000</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="5">
         <v>1002</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -1273,162 +1117,126 @@
       <c r="G8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H8" s="7">
-        <v>42111</v>
-      </c>
-      <c r="I8" s="7">
-        <v>42116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>1000</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <v>1010</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D9" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>183</v>
+      <c r="D9" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>148</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>85</v>
       </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="7">
-        <v>42111</v>
-      </c>
-      <c r="I9" s="7">
-        <v>42116</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="51" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:7" ht="51" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1000</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <v>1013</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="8" t="s">
         <v>17</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>86</v>
       </c>
       <c r="G10" s="2"/>
-      <c r="H10" s="7">
-        <v>42111</v>
-      </c>
-      <c r="I10" s="7">
-        <v>42116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1000</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <v>1014</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="E11" s="8" t="s">
         <v>97</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>86</v>
       </c>
       <c r="G11" s="2"/>
-      <c r="H11" s="7">
-        <v>42111</v>
-      </c>
-      <c r="I11" s="7">
-        <v>42116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>2000</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="5">
         <v>2001</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="8" t="s">
         <v>20</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>86</v>
       </c>
       <c r="G12" s="2"/>
-      <c r="H12" s="7">
-        <v>42111</v>
-      </c>
-      <c r="I12" s="7">
-        <v>42116</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>2000</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="5">
         <v>2001</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="10" t="s">
+      <c r="E13" s="8" t="s">
         <v>22</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>86</v>
       </c>
       <c r="G13" s="2"/>
-      <c r="H13" s="7">
-        <v>42111</v>
-      </c>
-      <c r="I13" s="7">
-        <v>42116</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>2000</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="5">
         <v>2003</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="10" t="s">
+      <c r="E14" s="8" t="s">
         <v>24</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -1437,27 +1245,21 @@
       <c r="G14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H14" s="7">
-        <v>42111</v>
-      </c>
-      <c r="I14" s="7">
-        <v>42116</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>2000</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <v>2003</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="10" t="s">
+      <c r="E15" s="8" t="s">
         <v>27</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -1466,378 +1268,294 @@
       <c r="G15" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="7">
-        <v>42111</v>
-      </c>
-      <c r="I15" s="7">
-        <v>42116</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>2000</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <v>2003</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="8" t="s">
         <v>29</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>86</v>
       </c>
       <c r="G16" s="2"/>
-      <c r="H16" s="7">
-        <v>42111</v>
-      </c>
-      <c r="I16" s="7">
-        <v>42116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>2000</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <v>2003</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="D17" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E17" s="10" t="s">
+      <c r="E17" s="8" t="s">
         <v>31</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>86</v>
       </c>
       <c r="G17" s="2"/>
-      <c r="H17" s="7">
-        <v>42111</v>
-      </c>
-      <c r="I17" s="7">
-        <v>42116</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1000</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="5">
         <v>2009</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>184</v>
+      <c r="D18" s="8" t="s">
+        <v>150</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>149</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>85</v>
       </c>
       <c r="G18" s="2"/>
-      <c r="H18" s="7">
-        <v>42111</v>
-      </c>
-      <c r="I18" s="7">
-        <v>42116</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>2000</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>2011</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E19" s="10" t="s">
+      <c r="E19" s="8" t="s">
         <v>33</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>86</v>
       </c>
       <c r="G19" s="2"/>
-      <c r="H19" s="7">
-        <v>42111</v>
-      </c>
-      <c r="I19" s="7">
-        <v>42116</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>3000</v>
       </c>
-      <c r="B20" s="6">
+      <c r="B20" s="5">
         <v>3001</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="D20" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" s="8" t="s">
         <v>94</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="7">
-        <v>42118</v>
-      </c>
-      <c r="I20" s="7">
-        <v>42118</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="G20" s="6"/>
+    </row>
+    <row r="21" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>3000</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <v>3002</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>144</v>
+      <c r="D21" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>109</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="7">
-        <v>42118</v>
-      </c>
-      <c r="I21" s="7">
-        <v>42118</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="G21" s="6"/>
+    </row>
+    <row r="22" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>3000</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <v>3003</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="D22" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="10" t="s">
+      <c r="E22" s="8" t="s">
         <v>67</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>86</v>
       </c>
       <c r="G22" s="2"/>
-      <c r="H22" s="7">
-        <v>42118</v>
-      </c>
-      <c r="I22" s="7">
-        <v>42118</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>3000</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <v>3003</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D23" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>146</v>
+      <c r="D23" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>111</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>86</v>
       </c>
       <c r="G23" s="2"/>
-      <c r="H23" s="7">
-        <v>42118</v>
-      </c>
-      <c r="I23" s="7">
-        <v>42118</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>3000</v>
       </c>
-      <c r="B24" s="6">
+      <c r="B24" s="5">
         <v>3005</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="8" t="s">
         <v>69</v>
       </c>
       <c r="F24" s="1" t="s">
         <v>86</v>
       </c>
       <c r="G24" s="2"/>
-      <c r="H24" s="7">
-        <v>42118</v>
-      </c>
-      <c r="I24" s="7">
-        <v>42118</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>3000</v>
       </c>
-      <c r="B25" s="6">
+      <c r="B25" s="5">
         <v>3007</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>186</v>
+      <c r="D25" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>151</v>
       </c>
       <c r="F25" s="1" t="s">
         <v>86</v>
       </c>
       <c r="G25" s="2"/>
-      <c r="H25" s="7">
-        <v>42118</v>
-      </c>
-      <c r="I25" s="7">
-        <v>42118</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="51" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:7" ht="51" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>4000</v>
       </c>
-      <c r="B26" s="6">
+      <c r="B26" s="5">
         <v>4001</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="E26" s="10" t="s">
+      <c r="E26" s="8" t="s">
         <v>72</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>86</v>
       </c>
       <c r="G26" s="2"/>
-      <c r="H26" s="7">
-        <v>42118</v>
-      </c>
-      <c r="I26" s="7">
-        <v>42118</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" ht="51" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:7" ht="51" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>4000</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="5">
         <v>4002</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="E27" s="8" t="s">
         <v>74</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>86</v>
       </c>
       <c r="G27" s="2"/>
-      <c r="H27" s="7">
-        <v>42118</v>
-      </c>
-      <c r="I27" s="7">
-        <v>42118</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>4000</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="5">
         <v>4003</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E28" s="10" t="s">
+      <c r="E28" s="8" t="s">
         <v>76</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>86</v>
       </c>
       <c r="G28" s="2"/>
-      <c r="H28" s="7">
-        <v>42118</v>
-      </c>
-      <c r="I28" s="7">
-        <v>42118</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>5000</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="5">
         <v>5001</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="8" t="s">
         <v>90</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -1846,135 +1564,105 @@
       <c r="G29" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H29" s="7">
-        <v>42111</v>
-      </c>
-      <c r="I29" s="7">
-        <v>42116</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>5000</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="5">
         <v>5001</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="8" t="s">
         <v>38</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>86</v>
       </c>
       <c r="G30" s="2"/>
-      <c r="H30" s="7">
-        <v>42111</v>
-      </c>
-      <c r="I30" s="7">
-        <v>42116</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>5000</v>
       </c>
-      <c r="B31" s="6">
+      <c r="B31" s="5">
         <v>5001</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D31" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>148</v>
+      <c r="D31" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>113</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>85</v>
       </c>
       <c r="G31" s="2"/>
-      <c r="H31" s="7">
-        <v>42111</v>
-      </c>
-      <c r="I31" s="7">
-        <v>42116</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>5000</v>
       </c>
-      <c r="B32" s="6">
+      <c r="B32" s="5">
         <v>5001</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D32" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="E32" s="10" t="s">
+      <c r="D32" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E32" s="8" t="s">
         <v>35</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>85</v>
       </c>
       <c r="G32" s="2"/>
-      <c r="H32" s="7">
-        <v>42111</v>
-      </c>
-      <c r="I32" s="7">
-        <v>42116</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>5000</v>
       </c>
-      <c r="B33" s="6">
+      <c r="B33" s="5">
         <v>5005</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="E33" s="8" t="s">
         <v>40</v>
       </c>
       <c r="F33" s="1" t="s">
         <v>86</v>
       </c>
       <c r="G33" s="2"/>
-      <c r="H33" s="7">
-        <v>42111</v>
-      </c>
-      <c r="I33" s="7">
-        <v>42116</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>5000</v>
       </c>
-      <c r="B34" s="6">
+      <c r="B34" s="5">
         <v>5005</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="E34" s="8" t="s">
         <v>42</v>
       </c>
       <c r="F34" s="1" t="s">
@@ -1983,27 +1671,21 @@
       <c r="G34" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="H34" s="7">
-        <v>42111</v>
-      </c>
-      <c r="I34" s="7">
-        <v>42116</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>5000</v>
       </c>
-      <c r="B35" s="6">
+      <c r="B35" s="5">
         <v>5005</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D35" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="E35" s="10" t="s">
+      <c r="D35" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="E35" s="8" t="s">
         <v>44</v>
       </c>
       <c r="F35" s="1" t="s">
@@ -2012,54 +1694,42 @@
       <c r="G35" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H35" s="7">
-        <v>42111</v>
-      </c>
-      <c r="I35" s="7">
-        <v>42116</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>5000</v>
       </c>
-      <c r="B36" s="6">
+      <c r="B36" s="5">
         <v>5008</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="E36" s="8" t="s">
         <v>46</v>
       </c>
       <c r="F36" s="1" t="s">
         <v>86</v>
       </c>
       <c r="G36" s="2"/>
-      <c r="H36" s="7">
-        <v>42111</v>
-      </c>
-      <c r="I36" s="7">
-        <v>42116</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>5000</v>
       </c>
-      <c r="B37" s="6">
+      <c r="B37" s="5">
         <v>5008</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E37" s="10" t="s">
+      <c r="E37" s="8" t="s">
         <v>48</v>
       </c>
       <c r="F37" s="1" t="s">
@@ -2068,27 +1738,21 @@
       <c r="G37" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H37" s="7">
-        <v>42111</v>
-      </c>
-      <c r="I37" s="7">
-        <v>42116</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:7" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>5000</v>
       </c>
-      <c r="B38" s="6">
+      <c r="B38" s="5">
         <v>5008</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D38" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E38" s="8" t="s">
         <v>50</v>
       </c>
       <c r="F38" s="1" t="s">
@@ -2097,27 +1761,21 @@
       <c r="G38" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H38" s="7">
-        <v>42111</v>
-      </c>
-      <c r="I38" s="7">
-        <v>42116</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" ht="51" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:7" ht="51" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>5000</v>
       </c>
-      <c r="B39" s="6">
+      <c r="B39" s="5">
         <v>5008</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="D39" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="E39" s="8" t="s">
         <v>52</v>
       </c>
       <c r="F39" s="1" t="s">
@@ -2126,194 +1784,152 @@
       <c r="G39" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="H39" s="7">
-        <v>42111</v>
-      </c>
-      <c r="I39" s="7">
-        <v>42116</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" ht="51" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:7" ht="51" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>5000</v>
       </c>
-      <c r="B40" s="6">
+      <c r="B40" s="5">
         <v>5012</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="D40" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="E40" s="8" t="s">
         <v>55</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>86</v>
       </c>
       <c r="G40" s="2"/>
-      <c r="H40" s="7">
-        <v>42111</v>
-      </c>
-      <c r="I40" s="7">
-        <v>42116</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>6000</v>
       </c>
-      <c r="B41" s="6">
+      <c r="B41" s="5">
         <v>6001</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E41" s="10" t="s">
+      <c r="E41" s="8" t="s">
         <v>58</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>86</v>
       </c>
       <c r="G41" s="2"/>
-      <c r="H41" s="7">
-        <v>42111</v>
-      </c>
-      <c r="I41" s="7">
-        <v>42116</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>6000</v>
       </c>
-      <c r="B42" s="6">
+      <c r="B42" s="5">
         <v>6001</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D42" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="E42" s="10" t="s">
+      <c r="D42" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="E42" s="8" t="s">
         <v>58</v>
       </c>
       <c r="F42" s="1" t="s">
         <v>86</v>
       </c>
       <c r="G42" s="2"/>
-      <c r="H42" s="7">
-        <v>42111</v>
-      </c>
-      <c r="I42" s="7">
-        <v>42116</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>7000</v>
       </c>
-      <c r="B43" s="6">
+      <c r="B43" s="5">
         <v>7001</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D43" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E43" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="D43" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>107</v>
-      </c>
       <c r="F43" s="1" t="s">
         <v>86</v>
       </c>
       <c r="G43" s="2"/>
-      <c r="H43" s="7">
-        <v>42111</v>
-      </c>
-      <c r="I43" s="7">
-        <v>42116</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>150</v>
+        <v>142</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>115</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D44" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>162</v>
+      <c r="D44" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E44" s="8" t="s">
+        <v>127</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G44" s="6" t="s">
+      <c r="G44" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H44" s="7">
-        <v>42111</v>
-      </c>
-      <c r="I44" s="7">
-        <v>42116</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>152</v>
+        <v>142</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>164</v>
+        <v>121</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E45" s="8" t="s">
+        <v>129</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G45" s="8" t="s">
+      <c r="G45" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H45" s="7">
-        <v>42111</v>
-      </c>
-      <c r="I45" s="7">
-        <v>42116</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>152</v>
+        <v>142</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>165</v>
+        <v>121</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="E46" s="8" t="s">
+        <v>130</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>62</v>
@@ -2321,28 +1937,22 @@
       <c r="G46" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H46" s="7">
-        <v>42111</v>
-      </c>
-      <c r="I46" s="7">
-        <v>42116</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>152</v>
+        <v>142</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>157</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>166</v>
+        <v>121</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="E47" s="8" t="s">
+        <v>131</v>
       </c>
       <c r="F47" s="1" t="s">
         <v>62</v>
@@ -2350,28 +1960,22 @@
       <c r="G47" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H47" s="7">
-        <v>42111</v>
-      </c>
-      <c r="I47" s="7">
-        <v>42116</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="38.25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>152</v>
+        <v>142</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>167</v>
+        <v>121</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="E48" s="8" t="s">
+        <v>132</v>
       </c>
       <c r="F48" s="1" t="s">
         <v>62</v>
@@ -2379,28 +1983,22 @@
       <c r="G48" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H48" s="7">
-        <v>42111</v>
-      </c>
-      <c r="I48" s="7">
-        <v>42116</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>152</v>
+        <v>142</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>168</v>
+        <v>121</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="E49" s="8" t="s">
+        <v>133</v>
       </c>
       <c r="F49" s="1" t="s">
         <v>62</v>
@@ -2408,28 +2006,22 @@
       <c r="G49" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H49" s="7">
-        <v>42111</v>
-      </c>
-      <c r="I49" s="7">
-        <v>42116</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>152</v>
+        <v>142</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D50" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>169</v>
+        <v>121</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E50" s="8" t="s">
+        <v>134</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>62</v>
@@ -2437,28 +2029,22 @@
       <c r="G50" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H50" s="7">
-        <v>42111</v>
-      </c>
-      <c r="I50" s="7">
-        <v>42116</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>152</v>
+        <v>142</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>170</v>
+        <v>121</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E51" s="8" t="s">
+        <v>135</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>62</v>
@@ -2466,97 +2052,73 @@
       <c r="G51" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H51" s="7">
-        <v>42111</v>
-      </c>
-      <c r="I51" s="7">
-        <v>42116</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>151</v>
+        <v>142</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D52" s="10" t="s">
+      <c r="D52" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="E52" s="10" t="s">
-        <v>163</v>
+      <c r="E52" s="8" t="s">
+        <v>128</v>
       </c>
       <c r="F52" s="1" t="s">
         <v>62</v>
       </c>
       <c r="G52" s="2"/>
-      <c r="H52" s="7">
-        <v>42111</v>
-      </c>
-      <c r="I52" s="7">
-        <v>42116</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>151</v>
+        <v>142</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D53" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="E53" s="10" t="s">
+      <c r="E53" s="8" t="s">
         <v>79</v>
       </c>
       <c r="F53" s="1" t="s">
         <v>62</v>
       </c>
       <c r="G53" s="2"/>
-      <c r="H53" s="7">
-        <v>42111</v>
-      </c>
-      <c r="I53" s="7">
-        <v>42116</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>151</v>
+        <v>142</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>116</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="D54" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E54" s="10" t="s">
+      <c r="E54" s="8" t="s">
         <v>81</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>62</v>
       </c>
       <c r="G54" s="2"/>
-      <c r="H54" s="7">
-        <v>42111</v>
-      </c>
-      <c r="I54" s="7">
-        <v>42116</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>100</v>
@@ -2564,10 +2126,10 @@
       <c r="C55" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="D55" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="E55" s="10" t="s">
+      <c r="E55" s="8" t="s">
         <v>99</v>
       </c>
       <c r="F55" s="1" t="s">
@@ -2576,16 +2138,10 @@
       <c r="G55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H55" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I55" s="7">
-        <v>42116</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" ht="51" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:7" ht="51" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>101</v>
@@ -2593,10 +2149,10 @@
       <c r="C56" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="D56" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E56" s="10" t="s">
+      <c r="E56" s="8" t="s">
         <v>89</v>
       </c>
       <c r="F56" s="1" t="s">
@@ -2605,28 +2161,22 @@
       <c r="G56" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H56" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I56" s="7">
-        <v>42116</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>173</v>
+        <v>138</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D57" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="E57" s="10" t="s">
-        <v>172</v>
+      <c r="D57" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="E57" s="8" t="s">
+        <v>137</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>86</v>
@@ -2634,28 +2184,22 @@
       <c r="G57" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H57" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I57" s="7">
-        <v>42116</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="51" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:7" ht="51" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>178</v>
+        <v>143</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="D58" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>190</v>
+      <c r="D58" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="E58" s="8" t="s">
+        <v>155</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>86</v>
@@ -2663,41 +2207,29 @@
       <c r="G58" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H58" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I58" s="7">
-        <v>42116</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="B59" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B59" s="5" t="s">
         <v>61</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="D59" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E59" s="10" t="s">
+      <c r="E59" s="8" t="s">
         <v>60</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>85</v>
       </c>
       <c r="G59" s="2"/>
-      <c r="H59" s="7">
-        <v>42111</v>
-      </c>
-      <c r="I59" s="7">
-        <v>42116</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" ht="25.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A60" s="1"/>
       <c r="B60" s="1" t="s">
         <v>15</v>
@@ -2705,38 +2237,32 @@
       <c r="C60" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="D60" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E60" s="10" t="s">
+      <c r="E60" s="8" t="s">
         <v>64</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>62</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="H60" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I60" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="B61" s="11"/>
-      <c r="C61" s="11"/>
-      <c r="D61" s="11"/>
-      <c r="E61" s="11"/>
-      <c r="F61" s="11"/>
-      <c r="G61" s="11"/>
+        <v>102</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9"/>
+      <c r="F61" s="9"/>
+      <c r="G61" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="C1:I61"/>
+  <autoFilter ref="C1:G61"/>
   <mergeCells count="1">
     <mergeCell ref="A61:G61"/>
   </mergeCells>
@@ -2745,202 +2271,22 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="94.7109375" style="4" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100F0EB43895666D743BBE5EE80DE8AFF2D" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3898ec998cc85d3bcc261598fbbf3dc9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1b05d82d297216baf5b26c55225140df">
     <xsd:element name="properties">
@@ -3054,29 +2400,41 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F913E231-B409-4122-98BA-78041B2FC12E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E48E04E-0CD0-4D32-87DC-CFFD07F36620}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26B710D9-968F-4E7C-85C6-5ADA2C741595}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{26B710D9-968F-4E7C-85C6-5ADA2C741595}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E48E04E-0CD0-4D32-87DC-CFFD07F36620}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F913E231-B409-4122-98BA-78041B2FC12E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>